--- a/Data_Lombardy.xlsx
+++ b/Data_Lombardy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MATLAB\Covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/matthias.ritter/MATLAB/Covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6AA23-7A92-5B42-A4EA-B5BCCD6A3B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,14 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,19 +43,19 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>https://github.com/pcm-dpc/COVID-19/blob/master/schede-riepilogative/regioni/dpc-covid19-ita-scheda-regioni-20200421.pdf</t>
+    <t>Day</t>
   </si>
   <si>
-    <t xml:space="preserve"> Presidenza del Consiglio dei Ministri - Dipartimento della Protezione Civile </t>
+    <t xml:space="preserve">Presidenza del Consiglio dei Ministri - Dipartimento della Protezione Civile </t>
   </si>
   <si>
-    <t>Day</t>
+    <t>https://github.com/pcm-dpc/COVID-19/tree/master/schede-riepilogative/regioni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -106,8 +99,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,19 +411,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -447,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -464,7 +455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -481,7 +472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -498,7 +489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -515,7 +506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -532,7 +523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -549,7 +540,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -566,7 +557,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -583,7 +574,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -600,7 +591,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -617,7 +608,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -634,7 +625,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -651,7 +642,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -668,7 +659,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -685,7 +676,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -702,7 +693,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -719,7 +710,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -736,7 +727,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -753,7 +744,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -770,7 +761,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -787,7 +778,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -804,7 +795,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -821,7 +812,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -838,7 +829,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -855,7 +846,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2020</v>
       </c>
@@ -872,7 +863,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -889,7 +880,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -906,7 +897,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2020</v>
       </c>
@@ -923,7 +914,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2020</v>
       </c>
@@ -940,7 +931,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -957,7 +948,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -974,7 +965,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -991,7 +982,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -1008,7 +999,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -1025,7 +1016,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -1042,7 +1033,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -1059,7 +1050,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -1076,7 +1067,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -1093,7 +1084,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -1110,7 +1101,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -1127,7 +1118,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -1144,7 +1135,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -1161,7 +1152,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -1178,7 +1169,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -1195,7 +1186,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -1212,7 +1203,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -1229,7 +1220,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -1246,7 +1237,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -1263,7 +1254,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -1280,7 +1271,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -1297,7 +1288,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -1314,7 +1305,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -1331,7 +1322,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -1348,7 +1339,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -1365,7 +1356,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -1382,7 +1373,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -1399,7 +1390,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -1416,7 +1407,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -1433,7 +1424,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -1456,34 +1447,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{EA4E00EE-0CF4-B041-B794-934D0394D632}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data_Lombardy.xlsx
+++ b/Data_Lombardy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/matthias.ritter/MATLAB/Covid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasritter/Desktop/Covid-19-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6AA23-7A92-5B42-A4EA-B5BCCD6A3B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF70854-A4A5-1E46-BAA9-4D6278E12F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
